--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8F39EE-DCC8-BB4D-8213-5959C52FFC8A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{825D74FA-4B2F-2740-BC7A-BD7F64B36495}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2372,10 +2372,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2701</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2388,8 +2384,51 @@
   </si>
   <si>
     <t>心流定投收入</t>
-    <rPh sb="0" eb="32">
+    <rPh sb="0" eb="6">
       <t>ji'suan'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-266.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500政经</t>
+    <rPh sb="0" eb="2">
+      <t>zheng'jing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反省自身</t>
+    <rPh sb="0" eb="4">
+      <t>lian'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系亲友</t>
+    <rPh sb="0" eb="4">
+      <t>lian'xi'qin'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有做到时时刻刻都能准备心流，跟师兄交流也不够顺畅，是自己的问题，应该更加大方一些主动包揽明显对自己好的事情</t>
+    <rPh sb="0" eb="2">
+      <t>mei'you</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4218</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟王丹丹、一中交流，跟修婷语音介绍github一小时</t>
+    <rPh sb="0" eb="127">
+      <t>xian'zai</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2398,7 +2437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2424,6 +2463,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -2472,7 +2529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2491,37 +2548,31 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2844,1328 +2895,1021 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="E1" sqref="E1:H1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1420" topLeftCell="A54" activePane="bottomLeft"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="11.6640625" style="6"/>
+    <col min="2" max="2" width="8" style="7" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="6"/>
+    <col min="4" max="4" width="11.6640625" style="8"/>
+    <col min="5" max="5" width="11.6640625" style="9"/>
+    <col min="6" max="8" width="11.6640625" style="6"/>
+    <col min="9" max="9" width="11.6640625" style="13"/>
+    <col min="10" max="10" width="31.33203125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3">
+      <c r="I2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6">
         <v>20180101</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>5779</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6">
         <v>20180102</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>3529</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6">
         <v>20180103</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>3256</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4">
+    <row r="6" spans="1:11">
+      <c r="A6" s="11">
         <v>20180104</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>3450</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6">
         <v>20180105</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>3351</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6">
         <v>20180106</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>3298</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3">
+    <row r="9" spans="1:11">
+      <c r="A9" s="6">
         <v>20180107</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>3638</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3">
+    <row r="10" spans="1:11">
+      <c r="A10" s="6">
         <v>20180108</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>3968</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6">
         <v>20180109</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>3193</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3">
+    <row r="12" spans="1:11">
+      <c r="A12" s="6">
         <v>20180110</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>4138</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6">
         <v>20180111</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>3535</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6">
         <v>20180112</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>4554</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3">
+    <row r="15" spans="1:11">
+      <c r="A15" s="6">
         <v>20180113</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>7279</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6">
         <v>20180114</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>4680</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>20180115</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>4776</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>20180116</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>5714</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>20180117</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>3295</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>20180118</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>4580</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>20180119</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>4389</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>20180120</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>3753</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>20180121</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>3713</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>20180122</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>3110</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>20180123</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>4399</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>20180124</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>3266</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>20180125</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>3205</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>20180126</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>4677</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>20180127</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>3119</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>20180128</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>3587</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>20180129</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>3948</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>20180130</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>3299</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>20180131</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>3449</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>20180201</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>3274</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>20180202</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>3126</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>20180203</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>3318</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>20180204</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>3246</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>20180205</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>3138</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>20180206</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>3535</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>20180207</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>20180208</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>20180209</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="3">
+      <c r="A43" s="6">
         <v>20180210</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>20180211</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>20180213</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>20180214</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>20180215</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="3">
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="6">
         <v>20180216</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="3">
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="6">
         <v>20180217</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3">
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="6">
         <v>20180218</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="3">
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="6">
         <v>20180219</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3">
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="6">
         <v>20180220</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="3">
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="6">
         <v>20180221</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3">
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="6">
         <v>20180222</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3">
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="6">
         <v>20180223</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3">
+      <c r="E56" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="6">
         <v>20180224</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="F57" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3">
+      <c r="H57" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="13">
+        <v>1</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="6">
         <v>20180225</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3">
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="6">
         <v>20180226</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="3">
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="6">
         <v>20180227</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="3">
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="6">
         <v>20180228</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="3">
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="6">
         <v>20180301</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="3">
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="6">
         <v>20180302</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="3">
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="6">
         <v>20180303</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="3">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6">
         <v>20180304</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="3">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="6">
         <v>20180305</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="3">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="6">
         <v>20180306</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="3">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="6">
         <v>20180307</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="3">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="6">
         <v>20180308</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="3">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6">
         <v>20180309</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="3">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6">
         <v>20180310</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="3">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6">
         <v>20180311</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="3">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6">
         <v>20180312</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="3">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6">
         <v>20180313</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="3">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6">
         <v>20180314</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="3">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6">
         <v>20180315</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4175,6 +3919,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4196,10 +3941,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{825D74FA-4B2F-2740-BC7A-BD7F64B36495}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66F5A71-C01D-9B4C-B523-F5F9BEB97AC9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="173">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2427,8 +2427,37 @@
   </si>
   <si>
     <t>跟王丹丹、一中交流，跟修婷语音介绍github一小时</t>
-    <rPh sb="0" eb="127">
+    <rPh sb="0" eb="26">
       <t>xian'zai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100曾国藩</t>
+    <rPh sb="0" eb="3">
+      <t>zeng'guo'fan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3795</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟杨玉川语音</t>
+    <rPh sb="0" eb="4">
+      <t>gen'yang'y'c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己没有做好自己真的该做的事情，总是想着不去做实验，真的今天这样做的并不好</t>
+    <rPh sb="0" eb="2">
+      <t>zi'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2897,7 +2926,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1420" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3765,6 +3794,24 @@
       </c>
       <c r="B58" s="7" t="s">
         <v>128</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:11">

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66F5A71-C01D-9B4C-B523-F5F9BEB97AC9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A780CAC-187A-334D-AC04-F44801C635E4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="每日反思内容" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="177">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2433,13 +2432,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1100曾国藩</t>
-    <rPh sb="0" eb="3">
-      <t>zeng'guo'fan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3795</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2459,6 +2451,38 @@
     <rPh sb="0" eb="2">
       <t>zi'ji</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900王德峰</t>
+    <rPh sb="0" eb="3">
+      <t>wang'de'feng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100张宏杰</t>
+    <rPh sb="0" eb="3">
+      <t>zeng'guo'fan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天自己的松懈想法渐渐有了，自己还是得认真起来</t>
+    <rPh sb="0" eb="661">
+      <t>jin'tian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟洪松一起往返张江，跟修婷和家里人聊天</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2244</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2924,9 +2948,9 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A54" activePane="bottomLeft"/>
+      <pane ySplit="1420" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3796,22 +3820,22 @@
         <v>128</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>121</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3820,6 +3844,27 @@
       </c>
       <c r="B59" s="7" t="s">
         <v>128</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I59" s="13">
+        <v>6</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:11">

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A780CAC-187A-334D-AC04-F44801C635E4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C097303C-23EF-4E4E-A3F2-5F278897B340}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="182">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2469,7 +2469,7 @@
   </si>
   <si>
     <t>今天自己的松懈想法渐渐有了，自己还是得认真起来</t>
-    <rPh sb="0" eb="661">
+    <rPh sb="0" eb="23">
       <t>jin'tian</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2483,6 +2483,35 @@
   </si>
   <si>
     <t>2244</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800滚雪球</t>
+    <rPh sb="0" eb="3">
+      <t>gun'xue'qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180226</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3708</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于论文态度不积极，其实我需要的是一个我自己的锚，心里有数的锚，所谓锚就是多多少少的对当前事情关注的心里有数，有一个自己完成的标准</t>
+    <rPh sb="0" eb="2">
+      <t>dui'yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟家里人群聊</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2948,9 +2977,9 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A46" activePane="bottomLeft"/>
+      <pane ySplit="1420" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3839,8 +3868,8 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="6">
-        <v>20180226</v>
+      <c r="A59" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>128</v>
@@ -3873,6 +3902,21 @@
       </c>
       <c r="B60" s="7" t="s">
         <v>128</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I60" s="13">
+        <v>6</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:11">

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C097303C-23EF-4E4E-A3F2-5F278897B340}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B5C53-77C7-3D4E-9E6F-CEB029489E63}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2511,6 +2511,13 @@
     <t>跟家里人群聊</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0900能力圈</t>
+    <rPh sb="0" eb="3">
+      <t>neng'li'quan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2979,7 +2986,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1420" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3909,6 +3916,15 @@
       <c r="D60" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="E60" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="I60" s="13">
         <v>6</v>
       </c>
@@ -3925,6 +3941,9 @@
       </c>
       <c r="B61" s="7" t="s">
         <v>128</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:11">

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B5C53-77C7-3D4E-9E6F-CEB029489E63}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C76E5D4-396B-344C-AB3E-20721B7B0482}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
-    <sheet name="每日反思内容" sheetId="4" r:id="rId2"/>
+    <sheet name="财务记账" sheetId="5" r:id="rId2"/>
+    <sheet name="每日反思内容" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="232">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2182,13 +2183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金钱开支</t>
-    <rPh sb="0" eb="4">
-      <t>jin'qian'kai'zhi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>被动支出</t>
     <rPh sb="0" eb="4">
       <t>tou'ru</t>
@@ -2519,6 +2513,303 @@
     <rPh sb="0" eb="3">
       <t>neng'li'quan</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己没能做到多管齐下当中的小内容也不波动，这是一个必须我要注意的点，大的波动我控制不了，小的实际上是可以的，追求的就是多个领域增长情况下就是要绝对定投，否则英语这样的内容永远灭有时间和机会</t>
+    <rPh sb="0" eb="2">
+      <t>zi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动开支</t>
+    <rPh sb="0" eb="38">
+      <t>jin'qian'kai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动开支</t>
+    <rPh sb="0" eb="4">
+      <t>zhu'dong'kai'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <rPh sb="0" eb="130">
+      <t>zao'fan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷</t>
+    <rPh sb="0" eb="2">
+      <t>xun'lei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>番茄</t>
+    <rPh sb="0" eb="2">
+      <t>fan'qie</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月开支</t>
+    <rPh sb="0" eb="2">
+      <t>mei'yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅盔</t>
+    <rPh sb="0" eb="2">
+      <t>guo'kui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭</t>
+    <rPh sb="0" eb="9">
+      <t>zao'fan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚水果</t>
+    <rPh sb="0" eb="1">
+      <t>fan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子设备</t>
+    <rPh sb="0" eb="4">
+      <t>dian'zi'she'bei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费</t>
+    <rPh sb="0" eb="2">
+      <t>hua'fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣食住行</t>
+    <rPh sb="0" eb="4">
+      <t>yi'shi'zhu'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动支出</t>
+    <rPh sb="0" eb="65">
+      <t>bei'dong'zhi'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋</t>
+    <rPh sb="0" eb="1">
+      <t>nei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双星</t>
+    <rPh sb="0" eb="2">
+      <t>shuang'xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本不换</t>
+    <rPh sb="0" eb="174">
+      <t>ji'ben'bu'huan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <rPh sb="0" eb="13">
+      <t>shi'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防打车</t>
+    <rPh sb="0" eb="1">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时预计</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么让地铁通勤时间为自己赚钱</t>
+    <rPh sb="0" eb="3">
+      <t>zen'em'rang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动收入</t>
+    <rPh sb="0" eb="4">
+      <t>zhu'dong'shou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月</t>
+    <rPh sb="0" eb="2">
+      <t>mei'yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <rPh sb="0" eb="2">
+      <t>mei'nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年10%回报</t>
+    <rPh sb="0" eb="1">
+      <t>nian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要</t>
+    <rPh sb="0" eb="2">
+      <t>xiang'yao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <rPh sb="0" eb="2">
+      <t>xu'yao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命标签</t>
+    <rPh sb="0" eb="2">
+      <t>sheng'ming'biaoqian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>PCEF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普500</t>
+    <rPh sb="0" eb="1">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6187</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2618,7 +2909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2635,9 +2926,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2664,7 +2952,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2981,1096 +3275,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A49" activePane="bottomLeft"/>
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pane ySplit="1420" topLeftCell="A55" activePane="bottomLeft"/>
+      <selection activeCell="D2" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="6"/>
-    <col min="2" max="2" width="8" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="6"/>
-    <col min="4" max="4" width="11.6640625" style="8"/>
-    <col min="5" max="5" width="11.6640625" style="9"/>
-    <col min="6" max="8" width="11.6640625" style="6"/>
-    <col min="9" max="9" width="11.6640625" style="13"/>
-    <col min="10" max="10" width="31.33203125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="11.6640625" style="6"/>
+    <col min="1" max="1" width="11.6640625" style="13"/>
+    <col min="2" max="2" width="8" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="13"/>
+    <col min="5" max="5" width="11.6640625" style="7"/>
+    <col min="6" max="6" width="11.6640625" style="8"/>
+    <col min="7" max="9" width="11.6640625" style="13"/>
+    <col min="10" max="10" width="11.6640625" style="12"/>
+    <col min="11" max="11" width="31.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="11.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="14"/>
+    <row r="1" spans="1:12">
+      <c r="A1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13">
+        <v>20180101</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13">
+        <v>20180102</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="13">
+        <v>20180103</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3256</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10">
+        <v>20180104</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3450</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="13">
+        <v>20180105</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="13">
+        <v>20180106</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13">
+        <v>20180107</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3638</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13">
+        <v>20180108</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13">
+        <v>20180109</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3193</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13">
+        <v>20180110</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13">
+        <v>20180111</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13">
+        <v>20180112</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4554</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13">
+        <v>20180113</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13">
+        <v>20180114</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13">
+        <v>20180115</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4776</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13">
+        <v>20180116</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13">
+        <v>20180117</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3295</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13">
+        <v>20180118</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13">
+        <v>20180119</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13">
+        <v>20180120</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13">
+        <v>20180121</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3713</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13">
+        <v>20180122</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13">
+        <v>20180123</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4399</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13">
+        <v>20180124</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13">
+        <v>20180125</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3205</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13">
+        <v>20180126</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13">
+        <v>20180127</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3119</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13">
+        <v>20180128</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13">
+        <v>20180129</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3948</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13">
+        <v>20180130</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13">
+        <v>20180131</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13">
+        <v>20180201</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="13">
+        <v>20180202</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="13">
+        <v>20180203</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="13">
+        <v>20180204</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="13">
+        <v>20180205</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3138</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="13">
+        <v>20180206</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3535</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="13">
+        <v>20180207</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="13">
+        <v>20180208</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="13">
+        <v>20180209</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="13">
+        <v>20180210</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="13">
+        <v>20180211</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="13">
+        <v>20180213</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="13">
+        <v>20180214</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="H47" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="13">
+        <v>20180215</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="13">
+        <v>20180216</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="13">
+        <v>20180217</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="13">
+        <v>20180218</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="13">
+        <v>20180219</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="13">
+        <v>20180220</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="13">
+        <v>20180221</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="13">
+        <v>20180222</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="13">
+        <v>20180223</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="13">
+        <v>20180224</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="12">
+        <v>1</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="6">
-        <v>20180101</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6">
-        <v>20180102</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6">
-        <v>20180103</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3256</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="11">
-        <v>20180104</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12">
-        <v>3450</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6">
-        <v>20180105</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6">
-        <v>20180106</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8">
-        <v>3298</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="L57" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="13">
+        <v>20180225</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6">
-        <v>20180107</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8">
-        <v>3638</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6">
-        <v>20180108</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="6">
-        <v>20180109</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3193</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6">
-        <v>20180110</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6">
-        <v>20180111</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="6">
-        <v>20180112</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8">
-        <v>4554</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6">
-        <v>20180113</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8">
-        <v>7279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="6">
-        <v>20180114</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="8">
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6">
-        <v>20180115</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="8">
-        <v>4776</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6">
-        <v>20180116</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6">
-        <v>20180117</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="8">
-        <v>3295</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6">
-        <v>20180118</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="8">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>20180119</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="8">
-        <v>4389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>20180120</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="8">
-        <v>3753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>20180121</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3713</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>20180122</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="8">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6">
-        <v>20180123</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="8">
-        <v>4399</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6">
-        <v>20180124</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="8">
-        <v>3266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6">
-        <v>20180125</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="8">
-        <v>3205</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="6">
-        <v>20180126</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="8">
-        <v>4677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6">
-        <v>20180127</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="8">
-        <v>3119</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="6">
-        <v>20180128</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="8">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="6">
-        <v>20180129</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="8">
-        <v>3948</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="6">
-        <v>20180130</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="8">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="6">
-        <v>20180131</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="8">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="6">
-        <v>20180201</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="8">
-        <v>3274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="6">
-        <v>20180202</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="8">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="6">
-        <v>20180203</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="8">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="6">
-        <v>20180204</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="8">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="6">
-        <v>20180205</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="8">
-        <v>3138</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="6">
-        <v>20180206</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="8">
-        <v>3535</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="6">
-        <v>20180207</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="6">
-        <v>20180208</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="6">
-        <v>20180209</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="6">
-        <v>20180210</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="6">
-        <v>20180211</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="6">
-        <v>20180213</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="6">
-        <v>20180214</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="6">
-        <v>20180215</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="6">
-        <v>20180216</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="6">
-        <v>20180217</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="6">
-        <v>20180218</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="6">
-        <v>20180219</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="6">
-        <v>20180220</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="6">
-        <v>20180221</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="6">
-        <v>20180222</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="6">
-        <v>20180223</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="J59" s="12">
+        <v>6</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="13">
+        <v>20180227</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="6">
-        <v>20180224</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="13">
-        <v>1</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="6">
-        <v>20180225</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I59" s="13">
+      <c r="G60" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J60" s="12">
         <v>6</v>
       </c>
-      <c r="J59" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="6">
-        <v>20180227</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="K60" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" s="13">
+      <c r="L60" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="13">
+        <v>20180228</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="12">
+        <f>29+13</f>
+        <v>42</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J61" s="12">
         <v>6</v>
       </c>
-      <c r="J60" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="6">
-        <v>20180228</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="K61" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="6">
+    <row r="62" spans="1:12">
+      <c r="A62" s="13">
         <v>20180301</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="6">
+      <c r="B62" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="13">
         <v>20180302</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="6">
+      <c r="B63" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="13">
         <v>20180303</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>128</v>
+      <c r="B64" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="6">
+      <c r="A65" s="13">
         <v>20180304</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>128</v>
+      <c r="B65" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="6">
+      <c r="A66" s="13">
         <v>20180305</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>128</v>
+      <c r="B66" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="6">
+      <c r="A67" s="13">
         <v>20180306</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>128</v>
+      <c r="B67" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="6">
+      <c r="A68" s="13">
         <v>20180307</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>128</v>
+      <c r="B68" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6">
+      <c r="A69" s="13">
         <v>20180308</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>128</v>
+      <c r="B69" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="6">
+      <c r="A70" s="13">
         <v>20180309</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>128</v>
+      <c r="B70" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6">
+      <c r="A71" s="13">
         <v>20180310</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>128</v>
+      <c r="B71" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="6">
+      <c r="A72" s="13">
         <v>20180311</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>128</v>
+      <c r="B72" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="6">
+      <c r="A73" s="13">
         <v>20180312</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>128</v>
+      <c r="B73" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="6">
+      <c r="A74" s="13">
         <v>20180313</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>128</v>
+      <c r="B74" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="6">
+      <c r="A75" s="13">
         <v>20180314</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>128</v>
+      <c r="B75" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="6">
+      <c r="A76" s="13">
         <v>20180315</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>128</v>
+      <c r="B76" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4079,11 +4390,302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57972FDF-54D8-D94D-A9BD-2804F249C3C4}">
+  <dimension ref="A2:J45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="B2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="12">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="12">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="12">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="D18" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="12">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="12">
+        <v>75</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="D19" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="12">
+        <v>6</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="12">
+        <f>$B34*1.006</f>
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" s="12">
+        <f>$B35*1.006</f>
+        <v>1.0120359999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" ref="B36:B45" si="0">$B36*1.006</f>
+        <v>1.0181082159999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="0"/>
+        <v>1.024216865296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" si="0"/>
+        <v>1.030362166487776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0365443394867027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0427636055236229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0490201871567646</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0553143082797052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0616461941293833</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0680160712941595</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I26:J26"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F30C675-B241-D549-A272-FD38FEA0E583}">
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4097,7 +4699,7 @@
     <row r="1" spans="1:4">
       <c r="A1"/>
       <c r="B1" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="1" t="s">

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C76E5D4-396B-344C-AB3E-20721B7B0482}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{768E2D5E-206B-B34B-B12E-C4D5C3238AD2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="每日反思内容" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="231">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2232,23 +2233,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全栈定投</t>
-    <rPh sb="0" eb="4">
-      <t>ji'suan'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>健身定投</t>
     <rPh sb="0" eb="1">
       <t>shen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文定投</t>
-    <rPh sb="0" eb="2">
-      <t>ying'wen</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2274,22 +2261,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容定投</t>
-    <rPh sb="0" eb="2">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-156</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2524,7 +2500,7 @@
   </si>
   <si>
     <t>被动开支</t>
-    <rPh sb="0" eb="38">
+    <rPh sb="0" eb="4">
       <t>jin'qian'kai'zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2542,7 +2518,7 @@
   </si>
   <si>
     <t>软件</t>
-    <rPh sb="0" eb="130">
+    <rPh sb="0" eb="2">
       <t>zao'fan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2577,7 +2553,7 @@
   </si>
   <si>
     <t>饭</t>
-    <rPh sb="0" eb="9">
+    <rPh sb="0" eb="1">
       <t>zao'fan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2612,7 +2588,7 @@
   </si>
   <si>
     <t>被动支出</t>
-    <rPh sb="0" eb="65">
+    <rPh sb="0" eb="4">
       <t>bei'dong'zhi'chu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2640,14 +2616,14 @@
   </si>
   <si>
     <t>基本不换</t>
-    <rPh sb="0" eb="174">
+    <rPh sb="0" eb="4">
       <t>ji'ben'bu'huan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行</t>
-    <rPh sb="0" eb="13">
+    <rPh sb="0" eb="1">
       <t>shi'wu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2810,6 +2786,27 @@
   </si>
   <si>
     <t>6187</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全栈输出</t>
+    <rPh sb="0" eb="2">
+      <t>quan'zhan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读定投</t>
+    <rPh sb="0" eb="21">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文输出</t>
+    <rPh sb="0" eb="4">
+      <t>ying'wen'shu'chu</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2909,7 +2906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2955,11 +2952,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3278,9 +3278,9 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="1420" topLeftCell="A48" activePane="bottomLeft"/>
       <selection activeCell="D2" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3289,9 +3289,9 @@
     <col min="2" max="2" width="8" style="6" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="13"/>
-    <col min="5" max="5" width="11.6640625" style="7"/>
-    <col min="6" max="6" width="11.6640625" style="8"/>
-    <col min="7" max="9" width="11.6640625" style="13"/>
+    <col min="5" max="7" width="11.6640625" style="7"/>
+    <col min="8" max="8" width="11.6640625" style="8"/>
+    <col min="9" max="9" width="11.6640625" style="13"/>
     <col min="10" max="10" width="11.6640625" style="12"/>
     <col min="11" max="11" width="31.33203125" style="12" customWidth="1"/>
     <col min="12" max="12" width="18.1640625" style="12" customWidth="1"/>
@@ -3303,53 +3303,54 @@
         <v>118</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="D1" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="C1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="14"/>
       <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
-        <v>159</v>
-      </c>
+      <c r="F1" s="14"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="J2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3357,7 +3358,7 @@
         <v>20180101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1</v>
@@ -3410,8 +3411,8 @@
       <c r="E6" s="11">
         <v>3450</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:12">
@@ -3926,7 +3927,7 @@
         <v>116</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3937,7 +3938,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3948,7 +3949,7 @@
         <v>127</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3959,7 +3960,7 @@
         <v>127</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3970,18 +3971,18 @@
         <v>127</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3992,7 +3993,7 @@
         <v>127</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4000,16 +4001,13 @@
         <v>20180214</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4020,7 +4018,7 @@
         <v>127</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4031,7 +4029,7 @@
         <v>127</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4042,7 +4040,7 @@
         <v>127</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4053,7 +4051,7 @@
         <v>127</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4064,7 +4062,7 @@
         <v>127</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4075,7 +4073,7 @@
         <v>127</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4086,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4097,7 +4095,7 @@
         <v>127</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4108,10 +4106,10 @@
         <v>127</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4119,31 +4117,28 @@
         <v>20180224</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D57" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>136</v>
+      <c r="H57" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J57" s="12">
         <v>1</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4154,51 +4149,45 @@
         <v>127</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>120</v>
+        <v>163</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="J59" s="12">
         <v>6</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4210,28 +4199,25 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>122</v>
+        <v>174</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J60" s="12">
         <v>6</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4246,16 +4232,19 @@
         <v>42</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="J61" s="12">
         <v>6</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4379,9 +4368,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4404,96 +4392,96 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="B2" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B5" s="12">
         <v>30</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B6" s="12">
         <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B7" s="12">
         <v>3000</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="D18" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E18" s="12">
         <v>13</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G18" s="12">
         <v>75</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I18" s="12">
         <v>100</v>
@@ -4501,13 +4489,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="D19" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E19" s="12">
         <v>6</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G19" s="12">
         <v>120</v>
@@ -4515,52 +4503,52 @@
     </row>
     <row r="20" spans="1:10">
       <c r="F20" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G20" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="I26" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="J26" s="16"/>
+      <c r="I26" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="J27" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B34" s="12">
         <v>1</v>
@@ -4571,7 +4559,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B35" s="12">
         <f>$B34*1.006</f>
@@ -4580,7 +4568,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B36" s="12">
         <f>$B35*1.006</f>
@@ -4589,16 +4577,16 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B37" s="12">
-        <f t="shared" ref="B36:B45" si="0">$B36*1.006</f>
+        <f t="shared" ref="B37:B45" si="0">$B36*1.006</f>
         <v>1.0181082159999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B38" s="12">
         <f t="shared" si="0"/>
@@ -4607,7 +4595,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B39" s="12">
         <f t="shared" si="0"/>
@@ -4616,7 +4604,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B40" s="12">
         <f t="shared" si="0"/>
@@ -4625,7 +4613,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B41" s="12">
         <f t="shared" si="0"/>
@@ -4634,7 +4622,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B42" s="12">
         <f t="shared" si="0"/>
@@ -4643,7 +4631,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B43" s="12">
         <f t="shared" si="0"/>
@@ -4652,7 +4640,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B44" s="12">
         <f t="shared" si="0"/>
@@ -4661,7 +4649,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B45" s="12">
         <f t="shared" si="0"/>
@@ -4698,10 +4686,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{768E2D5E-206B-B34B-B12E-C4D5C3238AD2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B3DC17-0656-8748-92CD-6C3F9C8E5D92}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="235">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2789,15 +2789,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全栈输出</t>
-    <rPh sb="0" eb="2">
-      <t>quan'zhan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阅读定投</t>
-    <rPh sb="0" eb="21">
+    <rPh sb="0" eb="4">
       <t>nei'rong</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2806,6 +2799,38 @@
     <t>英文输出</t>
     <rPh sb="0" eb="4">
       <t>ying'wen'shu'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码输出</t>
+    <rPh sb="0" eb="21">
+      <t>quan'zhan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1595</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天写作居然没有上心，复习也没有上心，难道自己不应该是不断复习轮动才行么，何况输出也要输出在公众号里面才好，这样的读书笔记输出更有内容和价值，每天输出一些自己的内容出来，这样不管自己写多少笔记都是好的。</t>
+    <rPh sb="0" eb="2">
+      <t>jin'tian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺利完成工作汇报</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟修婷聊学习</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2950,6 +2975,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2957,9 +2985,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3278,9 +3303,9 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A48" activePane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <pane ySplit="1420" topLeftCell="A51" activePane="bottomLeft"/>
+      <selection activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3303,17 +3328,17 @@
         <v>118</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="17" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="17"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="13" t="s">
@@ -3332,13 +3357,13 @@
         <v>130</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>129</v>
@@ -4246,6 +4271,9 @@
       <c r="K61" s="12" t="s">
         <v>178</v>
       </c>
+      <c r="L61" s="12" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="13">
@@ -4254,6 +4282,27 @@
       <c r="B62" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="C62" s="12">
+        <v>24</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" s="12">
+        <v>2</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="13">
@@ -4261,6 +4310,9 @@
       </c>
       <c r="B63" s="6" t="s">
         <v>127</v>
+      </c>
+      <c r="C63" s="12">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4510,10 +4562,10 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="J26" s="15"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="12" t="s">
@@ -4686,10 +4738,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B3DC17-0656-8748-92CD-6C3F9C8E5D92}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EFC456A-FAF7-6E43-A096-852A970CFBB8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
@@ -2247,13 +2247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容复习</t>
-    <rPh sb="0" eb="1">
-      <t>ren'zhihu'cheng'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内容收入</t>
     <rPh sb="0" eb="1">
       <t>ren'zhihu'cheng'he</t>
@@ -2804,7 +2797,7 @@
   </si>
   <si>
     <t>代码输出</t>
-    <rPh sb="0" eb="21">
+    <rPh sb="0" eb="4">
       <t>quan'zhan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2831,6 +2824,13 @@
     <t>跟修婷聊学习</t>
     <rPh sb="0" eb="1">
       <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念重复</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zhihu'cheng'he</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2931,7 +2931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2973,9 +2973,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3304,8 +3301,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1420" topLeftCell="A51" activePane="bottomLeft"/>
-      <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection activeCell="H1" sqref="H1:J1"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
@@ -3328,54 +3325,55 @@
         <v>118</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>180</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>130</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>129</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3383,7 +3381,7 @@
         <v>20180101</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>1</v>
@@ -3952,7 +3950,7 @@
         <v>116</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3963,7 +3961,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3974,7 +3972,7 @@
         <v>127</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3985,7 +3983,7 @@
         <v>127</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3996,18 +3994,18 @@
         <v>127</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4018,7 +4016,7 @@
         <v>127</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4026,13 +4024,13 @@
         <v>20180214</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4043,7 +4041,7 @@
         <v>127</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4054,7 +4052,7 @@
         <v>127</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4065,7 +4063,7 @@
         <v>127</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4076,7 +4074,7 @@
         <v>127</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4087,7 +4085,7 @@
         <v>127</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4098,7 +4096,7 @@
         <v>127</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4109,7 +4107,7 @@
         <v>127</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4120,7 +4118,7 @@
         <v>127</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4131,10 +4129,10 @@
         <v>127</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4142,28 +4140,28 @@
         <v>20180224</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>157</v>
-      </c>
       <c r="E57" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J57" s="12">
         <v>1</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4174,33 +4172,33 @@
         <v>127</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="K58" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>120</v>
@@ -4209,10 +4207,10 @@
         <v>6</v>
       </c>
       <c r="K59" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="L59" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4224,25 +4222,25 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J60" s="12">
         <v>6</v>
       </c>
       <c r="K60" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4257,10 +4255,10 @@
         <v>42</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>124</v>
@@ -4269,10 +4267,10 @@
         <v>6</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4286,10 +4284,10 @@
         <v>24</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>120</v>
@@ -4298,10 +4296,10 @@
         <v>2</v>
       </c>
       <c r="K62" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="L62" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4420,8 +4418,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4444,96 +4443,96 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="B2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>202</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="12">
         <v>30</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="12">
         <v>50</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="12">
         <v>3000</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="D18" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="12">
         <v>13</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G18" s="12">
         <v>75</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I18" s="12">
         <v>100</v>
@@ -4541,13 +4540,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="D19" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="12">
         <v>6</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" s="12">
         <v>120</v>
@@ -4555,52 +4554,52 @@
     </row>
     <row r="20" spans="1:10">
       <c r="F20" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G20" s="12">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="I26" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="J26" s="16"/>
+      <c r="I26" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="12">
         <v>1</v>
@@ -4611,7 +4610,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" s="12">
         <f>$B34*1.006</f>
@@ -4620,7 +4619,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B36" s="12">
         <f>$B35*1.006</f>
@@ -4629,7 +4628,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="12">
         <f t="shared" ref="B37:B45" si="0">$B36*1.006</f>
@@ -4638,7 +4637,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="12">
         <f t="shared" si="0"/>
@@ -4647,7 +4646,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B39" s="12">
         <f t="shared" si="0"/>
@@ -4656,7 +4655,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="12">
         <f t="shared" si="0"/>
@@ -4665,7 +4664,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B41" s="12">
         <f t="shared" si="0"/>
@@ -4674,7 +4673,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B42" s="12">
         <f t="shared" si="0"/>
@@ -4683,7 +4682,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43" s="12">
         <f t="shared" si="0"/>
@@ -4692,7 +4691,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="12">
         <f t="shared" si="0"/>
@@ -4701,7 +4700,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45" s="12">
         <f t="shared" si="0"/>
@@ -4738,10 +4737,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>

--- a/心流积累.xlsx
+++ b/心流积累.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EFC456A-FAF7-6E43-A096-852A970CFBB8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{CE07675C-B7F0-374F-A087-4F7FA581D7C8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24640" windowHeight="15560" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="238">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2247,13 +2247,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容收入</t>
-    <rPh sb="0" eb="1">
-      <t>ren'zhihu'cheng'he</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2331,10 +2324,6 @@
   </si>
   <si>
     <t>2087</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2345,13 +2334,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>心流定投收入</t>
-    <rPh sb="0" eb="6">
-      <t>ji'suan'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-266.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2399,10 +2381,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跟杨玉川语音</t>
     <rPh sb="0" eb="4">
       <t>gen'yang'y'c</t>
@@ -2782,20 +2760,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阅读定投</t>
-    <rPh sb="0" eb="4">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文输出</t>
-    <rPh sb="0" eb="4">
-      <t>ying'wen'shu'chu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>代码输出</t>
     <rPh sb="0" eb="4">
       <t>quan'zhan</t>
@@ -2828,9 +2792,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>概念重复</t>
+    <t>2182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1450</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念背诵</t>
     <rPh sb="0" eb="1">
       <t>ren'zhihu'cheng'he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大晚上少喝咖啡刺激自己，这样并不利于自己身心健康</t>
+    <rPh sb="0" eb="1">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送扒鸡三只给老师、师妹</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟爸妈视频</t>
+    <rPh sb="0" eb="1">
+      <t>gen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动输出</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zhihu'cheng'he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是不应该让自己过分关注那些所谓的让自己太过着急的内容，晚上和早起如果不用来背诵总是往念纷飞</t>
+    <rPh sb="0" eb="2">
+      <t>hai'shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定投建设</t>
+    <rPh sb="0" eb="79">
+      <t>ben'ye</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2931,7 +2949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2956,9 +2974,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2981,6 +2996,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3297,1130 +3327,1125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C748DA46-3392-674C-A8DF-D4E1FF50AE8C}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" topLeftCell="A51" activePane="bottomLeft"/>
-      <selection activeCell="H1" sqref="H1:J1"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <pane ySplit="1420" topLeftCell="A44" activePane="bottomLeft"/>
+      <selection activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="13"/>
-    <col min="2" max="2" width="8" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="13"/>
-    <col min="5" max="7" width="11.6640625" style="7"/>
-    <col min="8" max="8" width="11.6640625" style="8"/>
-    <col min="9" max="9" width="11.6640625" style="13"/>
-    <col min="10" max="10" width="11.6640625" style="12"/>
-    <col min="11" max="11" width="31.33203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="11.6640625" style="13"/>
+    <col min="1" max="1" width="10.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="11.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12">
+        <v>20180101</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5779</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12">
+        <v>20180102</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3529</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12">
+        <v>20180103</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3256</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9">
+        <v>20180104</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3450</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
+        <v>20180105</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3351</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12">
+        <v>20180106</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3298</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
+        <v>20180107</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3638</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12">
+        <v>20180108</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3968</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12">
+        <v>20180109</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3193</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12">
+        <v>20180110</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4138</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12">
+        <v>20180111</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3535</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="12">
+        <v>20180112</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4554</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="12">
+        <v>20180113</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7279</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="12">
+        <v>20180114</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4680</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12">
+        <v>20180115</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4776</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12">
+        <v>20180116</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5714</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12">
+        <v>20180117</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3295</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12">
+        <v>20180118</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4580</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12">
+        <v>20180119</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4389</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12">
+        <v>20180120</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3753</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12">
+        <v>20180121</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3713</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12">
+        <v>20180122</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3110</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12">
+        <v>20180123</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4399</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12">
+        <v>20180124</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3266</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12">
+        <v>20180125</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3205</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12">
+        <v>20180126</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4677</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12">
+        <v>20180127</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3119</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12">
+        <v>20180128</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3587</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12">
+        <v>20180129</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3948</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12">
+        <v>20180130</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3299</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12">
+        <v>20180131</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3449</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12">
+        <v>20180201</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3274</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12">
+        <v>20180202</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3126</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12">
+        <v>20180203</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3318</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12">
+        <v>20180204</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3246</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12">
+        <v>20180205</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3138</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12">
+        <v>20180206</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3535</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="12">
+        <v>20180207</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12">
+        <v>20180208</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12">
+        <v>20180209</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="12">
+        <v>20180210</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="12">
+        <v>20180211</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12">
+        <v>20180213</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12">
+        <v>20180214</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="12">
+        <v>20180215</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="12">
+        <v>20180216</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="12">
+        <v>20180217</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="12">
+        <v>20180218</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="12">
+        <v>20180219</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="12">
+        <v>20180220</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="12">
+        <v>20180221</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="12">
+        <v>20180222</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="12">
+        <v>20180223</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="12">
+        <v>20180224</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="H57" s="11">
+        <v>1</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="13">
-        <v>20180101</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>5779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="13">
-        <v>20180102</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="13">
-        <v>20180103</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3256</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="10">
-        <v>20180104</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3450</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="13">
-        <v>20180105</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="13">
-        <v>20180106</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="13">
-        <v>20180107</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3638</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="13">
-        <v>20180108</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="13">
-        <v>20180109</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3193</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13">
-        <v>20180110</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="13">
-        <v>20180111</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13">
-        <v>20180112</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4554</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="13">
-        <v>20180113</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7">
-        <v>7279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="13">
-        <v>20180114</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="13">
-        <v>20180115</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4776</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="13">
-        <v>20180116</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7">
-        <v>5714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="13">
-        <v>20180117</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="13">
-        <v>20180118</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="7">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="13">
-        <v>20180119</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="13">
-        <v>20180120</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3753</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="13">
-        <v>20180121</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="7">
-        <v>3713</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13">
-        <v>20180122</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="7">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="13">
-        <v>20180123</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="7">
-        <v>4399</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13">
-        <v>20180124</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="7">
-        <v>3266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="13">
-        <v>20180125</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="7">
-        <v>3205</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="13">
-        <v>20180126</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="7">
-        <v>4677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13">
-        <v>20180127</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="7">
-        <v>3119</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="13">
-        <v>20180128</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="7">
-        <v>3587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="13">
-        <v>20180129</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="7">
-        <v>3948</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="13">
-        <v>20180130</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="7">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="13">
-        <v>20180131</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="7">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="13">
-        <v>20180201</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="7">
-        <v>3274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="13">
-        <v>20180202</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="13">
-        <v>20180203</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="7">
-        <v>3318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="13">
-        <v>20180204</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="7">
-        <v>3246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="13">
-        <v>20180205</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="7">
-        <v>3138</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="13">
-        <v>20180206</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="7">
-        <v>3535</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="13">
-        <v>20180207</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="13">
-        <v>20180208</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="13">
-        <v>20180209</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="13">
-        <v>20180210</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="13">
-        <v>20180211</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="13">
-        <v>20180213</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="13">
-        <v>20180214</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="13">
-        <v>20180215</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="13">
-        <v>20180216</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="13">
-        <v>20180217</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="13">
-        <v>20180218</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="13">
-        <v>20180219</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="13">
-        <v>20180220</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="13">
-        <v>20180221</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="13">
-        <v>20180222</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="13">
-        <v>20180223</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="13">
-        <v>20180224</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="7" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" s="12">
+        <v>20180225</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J57" s="12">
-        <v>1</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="13">
-        <v>20180225</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" s="13" t="s">
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" s="11">
+        <v>6</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="12">
+        <v>20180227</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="G60" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="11">
+        <v>6</v>
+      </c>
+      <c r="I60" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J59" s="12">
-        <v>6</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="13">
-        <v>20180227</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13" t="s">
+      <c r="J60" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" s="12">
-        <v>6</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="13">
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="12">
         <v>20180228</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="12">
+      <c r="B61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="16">
         <f>29+13</f>
         <v>42</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="11">
+        <v>6</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="12">
+        <v>20180301</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="16">
+        <v>24</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H62" s="11">
+        <v>2</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61" s="12">
-        <v>6</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L61" s="12" t="s">
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="12">
+        <v>20180302</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="16">
+        <v>28</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="12">
+        <v>20180303</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="16">
+        <v>24</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="13">
-        <v>20180301</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="12">
-        <v>24</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J62" s="12">
-        <v>2</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="L62" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="13">
-        <v>20180302</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="13">
-        <v>20180303</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>20180304</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>20180305</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>20180306</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>20180307</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>20180308</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>20180309</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>20180310</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>20180311</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>20180312</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>20180313</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>20180314</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>20180315</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="7" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4438,275 +4463,275 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="11">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="11">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="D18" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E18" s="11">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="11">
+        <v>75</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="D19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="11">
+        <v>6</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="F20" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="12">
-        <v>30</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="12">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="12">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="D18" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="12">
-        <v>13</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="12">
-        <v>75</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="I18" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="D19" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="12">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="F20" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G20" s="12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="I26" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="I27" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="12" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="12">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <f>$B34*1.006</f>
         <v>1.006</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="A36" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="11">
         <f>$B35*1.006</f>
         <v>1.0120359999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="12">
+      <c r="A37" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="11">
         <f t="shared" ref="B37:B45" si="0">$B36*1.006</f>
         <v>1.0181082159999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="12">
+      <c r="A38" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B38" s="11">
         <f t="shared" si="0"/>
         <v>1.024216865296</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="12">
+      <c r="A39" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="11">
         <f t="shared" si="0"/>
         <v>1.030362166487776</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" s="12">
+      <c r="A40" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="11">
         <f t="shared" si="0"/>
         <v>1.0365443394867027</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B41" s="12">
+      <c r="A41" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="11">
         <f t="shared" si="0"/>
         <v>1.0427636055236229</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B42" s="12">
+      <c r="A42" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="11">
         <f t="shared" si="0"/>
         <v>1.0490201871567646</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" s="12">
+      <c r="A43" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="11">
         <f t="shared" si="0"/>
         <v>1.0553143082797052</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="12">
+      <c r="A44" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="11">
         <f t="shared" si="0"/>
         <v>1.0616461941293833</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" s="12">
+      <c r="A45" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="11">
         <f t="shared" si="0"/>
         <v>1.0680160712941595</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -4737,10 +4762,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
